--- a/Lista Pelada.xlsx
+++ b/Lista Pelada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/125f8c5110e45eec/Documentos/GitHub/Divisao_justa_times_futebol_amador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="560" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51CA9ED8-3C4A-4DE0-95D4-447A7DAC08AB}"/>
+  <xr:revisionPtr revIDLastSave="561" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1C612A-D6E7-4CD1-A320-282ED9B7C25F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{7F55CE75-B80B-4705-AC61-BCB4E74E1F9A}"/>
   </bookViews>
@@ -869,7 +869,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -900,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">

--- a/Lista Pelada.xlsx
+++ b/Lista Pelada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/125f8c5110e45eec/Documentos/GitHub/Divisao_justa_times_futebol_amador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1C612A-D6E7-4CD1-A320-282ED9B7C25F}"/>
+  <xr:revisionPtr revIDLastSave="562" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC5FFC64-3F7D-4A2D-A7AC-E2DFFB463AE9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{7F55CE75-B80B-4705-AC61-BCB4E74E1F9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F55CE75-B80B-4705-AC61-BCB4E74E1F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_pelada" sheetId="3" r:id="rId1"/>
@@ -585,17 +585,17 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
         <v>Defesa</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -632,7 +632,7 @@
         <v>Ataque</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -645,7 +645,7 @@
         <v>Ataque</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -658,7 +658,7 @@
         <v>Ataque</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -671,7 +671,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -684,7 +684,7 @@
         <v>Ataque</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -697,7 +697,7 @@
         <v>Ataque</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -710,7 +710,7 @@
         <v>Defesa</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -723,7 +723,7 @@
         <v>Ataque</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -736,7 +736,7 @@
         <v>Defesa</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -749,7 +749,7 @@
         <v>Ataque</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -762,7 +762,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -775,7 +775,7 @@
         <v>Defesa</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -788,7 +788,7 @@
         <v>Ataque</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -801,7 +801,7 @@
         <v>Ataque</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -814,7 +814,7 @@
         <v>Defesa</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -827,7 +827,7 @@
         <v>Ataque</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -840,7 +840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -853,10 +853,10 @@
         <v>Goleiro</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
     </row>
   </sheetData>
@@ -872,16 +872,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -892,7 +892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -900,10 +900,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -914,7 +914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -925,7 +925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -936,7 +936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -947,7 +947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -958,7 +958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -969,7 +969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -980,7 +980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -991,7 +991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>

--- a/Lista Pelada.xlsx
+++ b/Lista Pelada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/125f8c5110e45eec/Documentos/GitHub/Divisao_justa_times_futebol_amador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC5FFC64-3F7D-4A2D-A7AC-E2DFFB463AE9}"/>
+  <xr:revisionPtr revIDLastSave="590" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65361157-CC1E-4310-A872-3B22843BAC0B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F55CE75-B80B-4705-AC61-BCB4E74E1F9A}"/>
   </bookViews>
@@ -612,7 +612,7 @@
       </c>
       <c r="B2" s="1">
         <f>VLOOKUP(A2,Banco!A:C,2,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>VLOOKUP(A2,Banco!A:C,3,FALSE)</f>
@@ -677,7 +677,7 @@
       </c>
       <c r="B7" s="1">
         <f>VLOOKUP(A7,Banco!A:C,2,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>VLOOKUP(A7,Banco!A:C,3,FALSE)</f>
@@ -690,7 +690,7 @@
       </c>
       <c r="B8" s="1">
         <f>VLOOKUP(A8,Banco!A:C,2,FALSE)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>VLOOKUP(A8,Banco!A:C,3,FALSE)</f>
@@ -729,7 +729,7 @@
       </c>
       <c r="B11" s="1">
         <f>VLOOKUP(A11,Banco!A:C,2,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>VLOOKUP(A11,Banco!A:C,3,FALSE)</f>
@@ -742,7 +742,7 @@
       </c>
       <c r="B12" s="1">
         <f>VLOOKUP(A12,Banco!A:C,2,FALSE)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>VLOOKUP(A12,Banco!A:C,3,FALSE)</f>
@@ -781,7 +781,7 @@
       </c>
       <c r="B15" s="1">
         <f>VLOOKUP(A15,Banco!A:C,2,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>VLOOKUP(A15,Banco!A:C,3,FALSE)</f>
@@ -794,7 +794,7 @@
       </c>
       <c r="B16" s="1">
         <f>VLOOKUP(A16,Banco!A:C,2,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>VLOOKUP(A16,Banco!A:C,3,FALSE)</f>
@@ -820,7 +820,7 @@
       </c>
       <c r="B18" s="1">
         <f>VLOOKUP(A18,Banco!A:C,2,FALSE)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>VLOOKUP(A18,Banco!A:C,3,FALSE)</f>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96DE550-184B-4A6E-9AB1-E108F295DEEB}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,10 +894,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -916,21 +916,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -938,21 +938,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
@@ -971,21 +971,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>5</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -1092,21 +1092,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -1114,9 +1114,9 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" t="s">
@@ -1125,10 +1125,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -1147,43 +1147,43 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="2">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -1191,43 +1191,43 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -1235,76 +1235,76 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>45</v>
@@ -1312,21 +1312,21 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>45</v>
@@ -1334,30 +1334,31 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C36" xr:uid="{E96DE550-184B-4A6E-9AB1-E108F295DEEB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
-    <sortCondition ref="A2:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
+    <sortCondition ref="C2:C43"/>
+    <sortCondition descending="1" ref="B2:B43"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Lista Pelada.xlsx
+++ b/Lista Pelada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/125f8c5110e45eec/Documentos/GitHub/Divisao_justa_times_futebol_amador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="590" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65361157-CC1E-4310-A872-3B22843BAC0B}"/>
+  <xr:revisionPtr revIDLastSave="596" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C977758-D8E6-444A-9F70-BB8A173B6511}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F55CE75-B80B-4705-AC61-BCB4E74E1F9A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
   <si>
     <t>Lucas Martins</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Rafael</t>
+  </si>
+  <si>
+    <t>Rikelvin</t>
+  </si>
+  <si>
+    <t>Michel Arrivabene</t>
   </si>
 </sst>
 </file>
@@ -866,10 +872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96DE550-184B-4A6E-9AB1-E108F295DEEB}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1354,6 +1360,28 @@
         <v>25</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C36" xr:uid="{E96DE550-184B-4A6E-9AB1-E108F295DEEB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">

--- a/Lista Pelada.xlsx
+++ b/Lista Pelada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/125f8c5110e45eec/Documentos/GitHub/Divisao_justa_times_futebol_amador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="596" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C977758-D8E6-444A-9F70-BB8A173B6511}"/>
+  <xr:revisionPtr revIDLastSave="597" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0536AFAF-300D-4445-89C1-4C4C8D340B06}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F55CE75-B80B-4705-AC61-BCB4E74E1F9A}"/>
   </bookViews>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96DE550-184B-4A6E-9AB1-E108F295DEEB}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D29:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,7 +1376,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>44</v>

--- a/Lista Pelada.xlsx
+++ b/Lista Pelada.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/125f8c5110e45eec/Documentos/GitHub/Divisao_justa_times_futebol_amador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="597" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0536AFAF-300D-4445-89C1-4C4C8D340B06}"/>
+  <xr:revisionPtr revIDLastSave="598" documentId="8_{2DDB1E17-502B-4766-A8AF-C5F6E6F3C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CAEF0D7-A83D-4572-9E1A-168A6303D7AF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7F55CE75-B80B-4705-AC61-BCB4E74E1F9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F55CE75-B80B-4705-AC61-BCB4E74E1F9A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista_pelada" sheetId="3" r:id="rId1"/>
-    <sheet name="Banco" sheetId="1" r:id="rId2"/>
+    <sheet name="Banco" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Banco!$A$1:$C$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Banco!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Lucas Martins</t>
   </si>
@@ -48,9 +47,6 @@
     <t>Plínio</t>
   </si>
   <si>
-    <t>Capucho</t>
-  </si>
-  <si>
     <t>Diogo Davila</t>
   </si>
   <si>
@@ -60,9 +56,6 @@
     <t>Eduardo</t>
   </si>
   <si>
-    <t>Bruno</t>
-  </si>
-  <si>
     <t>Roninson</t>
   </si>
   <si>
@@ -145,9 +138,6 @@
   </si>
   <si>
     <t>João Victor</t>
-  </si>
-  <si>
-    <t>Filipe</t>
   </si>
   <si>
     <t>Rodrigo Vieira</t>
@@ -240,16 +230,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,293 +571,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7408B9-C2A7-452C-B236-CA39890E5704}">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <f>VLOOKUP(A2,Banco!A:C,2,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>VLOOKUP(A2,Banco!A:C,3,FALSE)</f>
-        <v>Defesa</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1">
-        <f>VLOOKUP(A3,Banco!A:C,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <f>VLOOKUP(A3,Banco!A:C,3,FALSE)</f>
-        <v>Ataque</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <f>VLOOKUP(A4,Banco!A:C,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>VLOOKUP(A4,Banco!A:C,3,FALSE)</f>
-        <v>Ataque</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <f>VLOOKUP(A5,Banco!A:C,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f>VLOOKUP(A5,Banco!A:C,3,FALSE)</f>
-        <v>Ataque</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="e">
-        <f>VLOOKUP(A6,Banco!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="3" t="e">
-        <f>VLOOKUP(A6,Banco!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
-        <f>VLOOKUP(A7,Banco!A:C,2,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f>VLOOKUP(A7,Banco!A:C,3,FALSE)</f>
-        <v>Ataque</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1">
-        <f>VLOOKUP(A8,Banco!A:C,2,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f>VLOOKUP(A8,Banco!A:C,3,FALSE)</f>
-        <v>Ataque</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <f>VLOOKUP(A9,Banco!A:C,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f>VLOOKUP(A9,Banco!A:C,3,FALSE)</f>
-        <v>Defesa</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="1">
-        <f>VLOOKUP(A10,Banco!A:C,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f>VLOOKUP(A10,Banco!A:C,3,FALSE)</f>
-        <v>Ataque</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1">
-        <f>VLOOKUP(A11,Banco!A:C,2,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f>VLOOKUP(A11,Banco!A:C,3,FALSE)</f>
-        <v>Defesa</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1">
-        <f>VLOOKUP(A12,Banco!A:C,2,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f>VLOOKUP(A12,Banco!A:C,3,FALSE)</f>
-        <v>Ataque</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="e">
-        <f>VLOOKUP(A13,Banco!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C13" s="3" t="e">
-        <f>VLOOKUP(A13,Banco!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1">
-        <f>VLOOKUP(A14,Banco!A:C,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f>VLOOKUP(A14,Banco!A:C,3,FALSE)</f>
-        <v>Defesa</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1">
-        <f>VLOOKUP(A15,Banco!A:C,2,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <f>VLOOKUP(A15,Banco!A:C,3,FALSE)</f>
-        <v>Ataque</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <f>VLOOKUP(A16,Banco!A:C,2,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <f>VLOOKUP(A16,Banco!A:C,3,FALSE)</f>
-        <v>Ataque</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1">
-        <f>VLOOKUP(A17,Banco!A:C,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <f>VLOOKUP(A17,Banco!A:C,3,FALSE)</f>
-        <v>Defesa</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <f>VLOOKUP(A18,Banco!A:C,2,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <f>VLOOKUP(A18,Banco!A:C,3,FALSE)</f>
-        <v>Ataque</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="e">
-        <f>VLOOKUP(A19,Banco!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C19" s="3" t="e">
-        <f>VLOOKUP(A19,Banco!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1">
-        <f>VLOOKUP(A20,Banco!A:C,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <f>VLOOKUP(A20,Banco!A:C,3,FALSE)</f>
-        <v>Goleiro</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96DE550-184B-4A6E-9AB1-E108F295DEEB}">
   <dimension ref="A1:D45"/>
   <sheetViews>
@@ -889,332 +589,332 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1225,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1236,150 +936,150 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" s="2">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
